--- a/backend/controllers/teachers_final.xlsx
+++ b/backend/controllers/teachers_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreyas Patil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suyash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BA1C1A8-73A5-4772-BB04-22CA1F4037EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBFD736-B3F4-4644-9A95-6F0961DDFD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{08525477-DD2E-4DF3-BD1D-C02A7B7997BA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{08525477-DD2E-4DF3-BD1D-C02A7B7997BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Serial No</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Coordinator</t>
   </si>
   <si>
-    <t>shyamsir@gmail.com</t>
-  </si>
-  <si>
     <t>Cybage</t>
   </si>
   <si>
@@ -72,13 +69,16 @@
   </si>
   <si>
     <t>patilomkar0032@gmail.com</t>
+  </si>
+  <si>
+    <t>sbdeshmukh@pict.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,12 +457,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,72 +479,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
